--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -63,9 +78,6 @@
   </si>
   <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -426,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,9 +531,45 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -529,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,6 +595,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,33 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
   </si>
   <si>
@@ -63,21 +90,6 @@
   </si>
   <si>
     <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -438,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -545,24 +557,59 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
+        <v>5880</v>
+      </c>
+      <c r="F4" s="3">
+        <v>594</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -570,6 +617,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -577,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,6 +651,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -63,21 +78,6 @@
   </si>
   <si>
     <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -522,13 +522,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>5880</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -557,13 +557,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>5880</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
   </si>
   <si>
@@ -63,21 +78,6 @@
   </si>
   <si>
     <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -522,13 +522,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>5880</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -557,13 +557,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>5880</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -53,6 +53,33 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -63,33 +90,6 @@
   </si>
   <si>
     <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -53,43 +53,31 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -450,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>75707</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>4287</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -537,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -557,13 +545,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>5880</v>
+        <v>2165</v>
       </c>
       <c r="F4" s="3">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="G4" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -572,44 +560,9 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -617,7 +570,6 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -625,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -651,14 +603,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -53,19 +53,40 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
@@ -438,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,22 +531,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>75707</v>
+        <v>23164</v>
       </c>
       <c r="F3" s="3">
-        <v>4287</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>628</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -539,30 +560,100 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3">
+        <v>7772</v>
+      </c>
+      <c r="F4" s="3">
+        <v>239</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>269112</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5243</v>
+      </c>
+      <c r="G5" s="3">
+        <v>129</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>246</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
         <v>2165</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>278</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -570,6 +661,8 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -577,7 +670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,9 +690,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -65,7 +80,13 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -87,18 +108,6 @@
   </si>
   <si>
     <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -459,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,13 +540,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -546,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -560,28 +569,28 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>7772</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -589,25 +598,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>269112</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -616,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -630,30 +639,65 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3">
+        <v>7772</v>
+      </c>
+      <c r="F6" s="3">
+        <v>239</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3">
-        <v>2165</v>
-      </c>
-      <c r="F6" s="3">
-        <v>278</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="L6" t="s">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>269112</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5243</v>
+      </c>
+      <c r="G7" s="3">
+        <v>129</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>246</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -663,6 +707,7 @@
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -690,7 +735,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -698,7 +743,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -53,21 +53,30 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
     <t>Questions/réflexions en Commission des Finances</t>
   </si>
   <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -80,15 +89,6 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
@@ -96,18 +96,6 @@
   </si>
   <si>
     <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -468,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +528,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,19 +557,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -590,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -598,34 +586,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>9</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -639,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -663,41 +651,6 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>269112</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5243</v>
-      </c>
-      <c r="G7" s="3">
-        <v>129</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>246</v>
-      </c>
-      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -707,7 +660,6 @@
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,7 +667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -735,17 +687,9 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -75,27 +75,6 @@
   </si>
   <si>
     <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -456,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,82 +563,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>23164</v>
-      </c>
-      <c r="F5" s="3">
-        <v>162</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7772</v>
-      </c>
-      <c r="F6" s="3">
-        <v>239</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,14 +592,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-v.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-v.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -51,30 +51,6 @@
   </si>
   <si>
     <t>Top Channels Recommending It with &gt; 100k subs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -84,10 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,###"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +75,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,21 +94,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,81 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -585,11 +470,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
